--- a/output/StructureDefinition-cls-l3-blood.xlsx
+++ b/output/StructureDefinition-cls-l3-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T17:38:01+01:00</t>
+    <t>2023-03-02T19:45:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-blood.xlsx
+++ b/output/StructureDefinition-cls-l3-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T21:18:11+01:00</t>
+    <t>2023-03-02T21:55:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-blood.xlsx
+++ b/output/StructureDefinition-cls-l3-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T22:37:28+01:00</t>
+    <t>2023-03-02T23:17:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-blood.xlsx
+++ b/output/StructureDefinition-cls-l3-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T23:17:06+01:00</t>
+    <t>2023-03-03T00:07:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-blood.xlsx
+++ b/output/StructureDefinition-cls-l3-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:07:18+01:00</t>
+    <t>2023-03-03T00:29:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-blood.xlsx
+++ b/output/StructureDefinition-cls-l3-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:29:20+01:00</t>
+    <t>2023-03-03T03:09:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -661,7 +661,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the coding value for classificiation of data elements.</t>
+    <t>Slice based on the category.coding value for classificiation of data elements.</t>
   </si>
   <si>
     <t>openAtEnd</t>
@@ -2105,7 +2105,7 @@
     <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="60.6484375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/output/StructureDefinition-cls-l3-blood.xlsx
+++ b/output/StructureDefinition-cls-l3-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T03:09:30+01:00</t>
+    <t>2023-03-03T12:59:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-blood.xlsx
+++ b/output/StructureDefinition-cls-l3-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:59:12+01:00</t>
+    <t>2023-03-03T15:59:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-blood.xlsx
+++ b/output/StructureDefinition-cls-l3-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:59:45+01:00</t>
+    <t>2023-03-03T16:34:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-blood.xlsx
+++ b/output/StructureDefinition-cls-l3-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T18:31:25+01:00</t>
+    <t>2023-03-04T00:41:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-blood.xlsx
+++ b/output/StructureDefinition-cls-l3-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T03:06:34+01:00</t>
+    <t>2023-03-04T04:05:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-blood.xlsx
+++ b/output/StructureDefinition-cls-l3-blood.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="550">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T04:05:22+01:00</t>
+    <t>2023-03-04T20:22:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,14 +657,11 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the category.coding value for classificiation of data elements.</t>
-  </si>
-  <si>
-    <t>openAtEnd</t>
+    <t>value:$this.code}
+value:$this.system}</t>
+  </si>
+  <si>
+    <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -2105,7 +2102,7 @@
     <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -3895,10 +3892,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -3922,13 +3919,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3936,13 +3933,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -3976,7 +3973,7 @@
         <v>201</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4046,13 +4043,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4060,10 +4057,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4086,13 +4083,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4143,7 +4140,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4178,10 +4175,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4210,7 +4207,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4263,7 +4260,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4298,10 +4295,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4324,19 +4321,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4385,7 +4382,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4406,10 +4403,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4420,10 +4417,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4446,13 +4443,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4503,7 +4500,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4538,10 +4535,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4570,7 +4567,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4623,7 +4620,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4658,10 +4655,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4687,65 +4684,65 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4766,10 +4763,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4780,10 +4777,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4806,16 +4803,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4865,7 +4862,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4886,10 +4883,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -4900,10 +4897,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4929,65 +4926,65 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5008,10 +5005,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5022,10 +5019,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5048,19 +5045,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5109,7 +5106,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5130,10 +5127,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5144,10 +5141,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5170,19 +5167,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5231,7 +5228,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5252,10 +5249,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5266,10 +5263,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5292,19 +5289,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5353,7 +5350,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5374,10 +5371,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5388,13 +5385,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5428,7 +5425,7 @@
         <v>201</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5438,7 +5435,7 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>82</v>
@@ -5498,13 +5495,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5512,13 +5509,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>82</v>
@@ -5552,7 +5549,7 @@
         <v>201</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5562,7 +5559,7 @@
         <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>82</v>
@@ -5622,13 +5619,13 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>82</v>
@@ -5636,13 +5633,13 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>82</v>
@@ -5676,7 +5673,7 @@
         <v>201</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5686,7 +5683,7 @@
         <v>82</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>82</v>
@@ -5746,13 +5743,13 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>82</v>
@@ -5760,14 +5757,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5789,16 +5786,16 @@
         <v>198</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5823,14 +5820,14 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>313</v>
-      </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
       </c>
@@ -5847,7 +5844,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>92</v>
@@ -5862,30 +5859,30 @@
         <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AO31" t="s" s="2">
+      <c r="AP31" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>319</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5908,19 +5905,19 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -5969,7 +5966,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5984,19 +5981,19 @@
         <v>170</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AL32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -6004,10 +6001,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6030,16 +6027,16 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6089,7 +6086,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6110,13 +6107,13 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6124,14 +6121,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6150,19 +6147,19 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6211,7 +6208,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6226,19 +6223,19 @@
         <v>170</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6246,14 +6243,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6272,19 +6269,19 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6333,7 +6330,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6348,19 +6345,19 @@
         <v>105</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6368,10 +6365,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6394,16 +6391,16 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6453,7 +6450,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6474,13 +6471,13 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>82</v>
@@ -6488,10 +6485,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6514,19 +6511,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6575,7 +6572,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6590,19 +6587,19 @@
         <v>170</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AL37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>82</v>
@@ -6610,10 +6607,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6636,19 +6633,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6697,7 +6694,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6706,7 +6703,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>105</v>
@@ -6715,27 +6712,27 @@
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP38" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>385</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6761,16 +6758,16 @@
         <v>198</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6795,14 +6792,14 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="Y39" t="s" s="2">
+      <c r="Z39" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>393</v>
-      </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
       </c>
@@ -6819,7 +6816,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6828,7 +6825,7 @@
         <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>105</v>
@@ -6843,7 +6840,7 @@
         <v>106</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6854,14 +6851,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6883,16 +6880,16 @@
         <v>198</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6917,14 +6914,14 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y40" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="Z40" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="Z40" t="s" s="2">
-        <v>403</v>
-      </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
       </c>
@@ -6941,7 +6938,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6959,27 +6956,27 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP40" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>407</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7002,19 +6999,19 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7063,7 +7060,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7084,10 +7081,10 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7098,10 +7095,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7127,13 +7124,13 @@
         <v>198</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7159,14 +7156,14 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>421</v>
-      </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
       </c>
@@ -7183,7 +7180,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7201,27 +7198,27 @@
         <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP42" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>425</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7247,16 +7244,16 @@
         <v>198</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="N43" t="s" s="2">
+      <c r="O43" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7281,14 +7278,14 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>432</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
       </c>
@@ -7305,7 +7302,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7326,10 +7323,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7340,10 +7337,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7366,16 +7363,16 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7425,7 +7422,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7443,27 +7440,27 @@
         <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="AN44" t="s" s="2">
+      <c r="AO44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP44" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP44" t="s" s="2">
-        <v>443</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7486,16 +7483,16 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7545,7 +7542,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7563,27 +7560,27 @@
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AN45" t="s" s="2">
+      <c r="AO45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP45" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP45" t="s" s="2">
-        <v>452</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7606,19 +7603,19 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7667,7 +7664,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7679,19 +7676,19 @@
         <v>104</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AK46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7702,10 +7699,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7728,13 +7725,13 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7785,7 +7782,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7820,10 +7817,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7852,7 +7849,7 @@
         <v>141</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>143</v>
@@ -7905,7 +7902,7 @@
         <v>146</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7940,14 +7937,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7969,10 +7966,10 @@
         <v>140</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>143</v>
@@ -8027,7 +8024,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8062,10 +8059,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8088,16 +8085,16 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8147,7 +8144,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8156,22 +8153,22 @@
         <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AJ50" t="s" s="2">
+      <c r="AK50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="AK50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8182,10 +8179,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8208,16 +8205,16 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M51" t="s" s="2">
-        <v>480</v>
-      </c>
       <c r="N51" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8267,7 +8264,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8276,22 +8273,22 @@
         <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AJ51" t="s" s="2">
+      <c r="AK51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="AK51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>476</v>
-      </c>
       <c r="AN51" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8302,10 +8299,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8331,16 +8328,16 @@
         <v>198</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>483</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8368,11 +8365,11 @@
         <v>119</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>488</v>
-      </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
       </c>
@@ -8389,7 +8386,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8407,13 +8404,13 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="AM52" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="AN52" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8424,10 +8421,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8453,16 +8450,16 @@
         <v>198</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>494</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>495</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8487,14 +8484,14 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y53" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="Z53" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="Z53" t="s" s="2">
-        <v>497</v>
-      </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
       </c>
@@ -8511,7 +8508,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8529,13 +8526,13 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="AM53" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="AN53" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8546,10 +8543,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8572,19 +8569,19 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>500</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="N54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8633,7 +8630,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8645,19 +8642,19 @@
         <v>104</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="AK54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>505</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>506</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8668,10 +8665,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8694,16 +8691,16 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>509</v>
-      </c>
       <c r="N55" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8753,7 +8750,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8774,10 +8771,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8788,10 +8785,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8814,16 +8811,16 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8873,7 +8870,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8894,10 +8891,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>516</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>517</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8908,10 +8905,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8934,16 +8931,16 @@
         <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8993,7 +8990,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9014,10 +9011,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9028,10 +9025,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9054,19 +9051,19 @@
         <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>528</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9115,7 +9112,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9136,10 +9133,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>529</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>530</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9150,10 +9147,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9176,13 +9173,13 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9233,7 +9230,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9268,10 +9265,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9300,7 +9297,7 @@
         <v>141</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>143</v>
@@ -9353,7 +9350,7 @@
         <v>146</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9388,14 +9385,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9417,10 +9414,10 @@
         <v>140</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>143</v>
@@ -9475,7 +9472,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9510,10 +9507,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9539,16 +9536,16 @@
         <v>198</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>535</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>536</v>
       </c>
-      <c r="N62" t="s" s="2">
-        <v>537</v>
-      </c>
       <c r="O62" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9573,14 +9570,14 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="Y62" t="s" s="2">
+      <c r="Z62" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>313</v>
-      </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
       </c>
@@ -9597,7 +9594,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>92</v>
@@ -9615,16 +9612,16 @@
         <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>82</v>
@@ -9632,10 +9629,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9658,19 +9655,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>541</v>
-      </c>
       <c r="O63" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9719,7 +9716,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9737,27 +9734,27 @@
         <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AM63" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AN63" t="s" s="2">
+      <c r="AO63" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP63" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>385</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9783,16 +9780,16 @@
         <v>198</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>544</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="N64" t="s" s="2">
-        <v>546</v>
-      </c>
       <c r="O64" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9817,14 +9814,14 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="Y64" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="Y64" t="s" s="2">
+      <c r="Z64" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>393</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
       </c>
@@ -9841,7 +9838,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9850,7 +9847,7 @@
         <v>92</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>105</v>
@@ -9865,7 +9862,7 @@
         <v>106</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -9876,14 +9873,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9905,16 +9902,16 @@
         <v>198</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="N65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -9939,14 +9936,14 @@
         <v>82</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Y65" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="Z65" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="Z65" t="s" s="2">
-        <v>403</v>
-      </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
       </c>
@@ -9963,7 +9960,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9981,27 +9978,27 @@
         <v>82</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AM65" t="s" s="2">
+      <c r="AN65" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AN65" t="s" s="2">
+      <c r="AO65" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP65" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP65" t="s" s="2">
-        <v>407</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10027,16 +10024,16 @@
         <v>83</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="M66" t="s" s="2">
-        <v>550</v>
-      </c>
       <c r="N66" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="O66" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10085,7 +10082,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10106,10 +10103,10 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cls-l3-blood.xlsx
+++ b/output/StructureDefinition-cls-l3-blood.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="551">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T20:22:12+01:00</t>
+    <t>2023-03-05T01:48:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -657,11 +657,14 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t>value:$this.code}
-value:$this.system}</t>
+    <t xml:space="preserve">value:coding.code}
+</t>
   </si>
   <si>
     <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
+  </si>
+  <si>
+    <t>openAtEnd</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -3892,10 +3895,10 @@
         <v>206</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>207</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -3919,13 +3922,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3933,13 +3936,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -3973,7 +3976,7 @@
         <v>201</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4043,13 +4046,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4057,10 +4060,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4083,13 +4086,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4140,7 +4143,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4175,10 +4178,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4207,7 +4210,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4260,7 +4263,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4295,10 +4298,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4306,13 +4309,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -4321,19 +4324,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4382,7 +4385,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4403,10 +4406,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4417,10 +4420,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4443,13 +4446,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4500,7 +4503,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4535,10 +4538,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4567,7 +4570,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4620,7 +4623,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4655,10 +4658,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4666,13 +4669,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -4684,23 +4687,23 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>82</v>
@@ -4742,7 +4745,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4763,10 +4766,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4777,10 +4780,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4803,16 +4806,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4862,7 +4865,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4883,10 +4886,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -4897,10 +4900,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4908,13 +4911,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -4926,23 +4929,23 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>82</v>
@@ -4984,7 +4987,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5005,10 +5008,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -5019,10 +5022,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5045,19 +5048,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5106,7 +5109,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5127,10 +5130,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5141,10 +5144,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5167,19 +5170,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5228,7 +5231,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5249,10 +5252,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5263,10 +5266,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5289,19 +5292,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5350,7 +5353,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5371,10 +5374,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5385,13 +5388,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5425,7 +5428,7 @@
         <v>201</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5435,7 +5438,7 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>82</v>
@@ -5495,13 +5498,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5509,13 +5512,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>82</v>
@@ -5549,7 +5552,7 @@
         <v>201</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5559,7 +5562,7 @@
         <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>82</v>
@@ -5619,13 +5622,13 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>82</v>
@@ -5633,13 +5636,13 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>82</v>
@@ -5673,7 +5676,7 @@
         <v>201</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5683,7 +5686,7 @@
         <v>82</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>82</v>
@@ -5743,13 +5746,13 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>82</v>
@@ -5757,14 +5760,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5786,16 +5789,16 @@
         <v>198</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5820,13 +5823,13 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -5844,7 +5847,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>92</v>
@@ -5859,30 +5862,30 @@
         <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5905,19 +5908,19 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
@@ -5966,7 +5969,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5981,19 +5984,19 @@
         <v>170</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -6001,10 +6004,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6027,16 +6030,16 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6086,7 +6089,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6107,13 +6110,13 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6121,14 +6124,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6147,19 +6150,19 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6208,7 +6211,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6223,19 +6226,19 @@
         <v>170</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6243,14 +6246,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6269,19 +6272,19 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6330,7 +6333,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6345,19 +6348,19 @@
         <v>105</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6365,10 +6368,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6391,16 +6394,16 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6450,7 +6453,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6471,13 +6474,13 @@
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>82</v>
@@ -6485,10 +6488,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6511,19 +6514,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6572,7 +6575,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6587,19 +6590,19 @@
         <v>170</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>82</v>
@@ -6607,10 +6610,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6633,19 +6636,19 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6694,7 +6697,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6703,7 +6706,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>105</v>
@@ -6712,27 +6715,27 @@
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6758,16 +6761,16 @@
         <v>198</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6792,13 +6795,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6816,7 +6819,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6825,7 +6828,7 @@
         <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>105</v>
@@ -6840,7 +6843,7 @@
         <v>106</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6851,14 +6854,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6880,16 +6883,16 @@
         <v>198</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6914,13 +6917,13 @@
         <v>82</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>82</v>
@@ -6938,7 +6941,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6956,27 +6959,27 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6999,19 +7002,19 @@
         <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7060,7 +7063,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7081,10 +7084,10 @@
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7095,10 +7098,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7124,13 +7127,13 @@
         <v>198</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7156,13 +7159,13 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
@@ -7180,7 +7183,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7198,27 +7201,27 @@
         <v>82</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7244,16 +7247,16 @@
         <v>198</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7278,13 +7281,13 @@
         <v>82</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>82</v>
@@ -7302,7 +7305,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7323,10 +7326,10 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7337,10 +7340,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7363,16 +7366,16 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7422,7 +7425,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7440,27 +7443,27 @@
         <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7483,16 +7486,16 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7542,7 +7545,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7560,27 +7563,27 @@
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7603,19 +7606,19 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7664,7 +7667,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7676,7 +7679,7 @@
         <v>104</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7685,10 +7688,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7699,10 +7702,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7725,13 +7728,13 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7782,7 +7785,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7817,10 +7820,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7849,7 +7852,7 @@
         <v>141</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>143</v>
@@ -7902,7 +7905,7 @@
         <v>146</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7937,14 +7940,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7966,10 +7969,10 @@
         <v>140</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>143</v>
@@ -8024,7 +8027,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8059,10 +8062,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8085,16 +8088,16 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8144,7 +8147,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8153,10 +8156,10 @@
         <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
@@ -8165,10 +8168,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8179,10 +8182,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8205,16 +8208,16 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8264,7 +8267,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8273,10 +8276,10 @@
         <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>82</v>
@@ -8285,10 +8288,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8299,10 +8302,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8328,16 +8331,16 @@
         <v>198</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8365,10 +8368,10 @@
         <v>119</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8386,7 +8389,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8404,13 +8407,13 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8421,10 +8424,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8450,16 +8453,16 @@
         <v>198</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8484,13 +8487,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8508,7 +8511,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8526,13 +8529,13 @@
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8543,10 +8546,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8569,19 +8572,19 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8630,7 +8633,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8642,7 +8645,7 @@
         <v>104</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
@@ -8651,10 +8654,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8665,10 +8668,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8691,16 +8694,16 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8750,7 +8753,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8771,10 +8774,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8785,10 +8788,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8811,16 +8814,16 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8870,7 +8873,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8891,10 +8894,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8905,10 +8908,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8931,16 +8934,16 @@
         <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8990,7 +8993,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9011,10 +9014,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9025,10 +9028,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9051,19 +9054,19 @@
         <v>93</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9112,7 +9115,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9133,10 +9136,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9147,10 +9150,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9173,13 +9176,13 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9230,7 +9233,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9265,10 +9268,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9297,7 +9300,7 @@
         <v>141</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>143</v>
@@ -9350,7 +9353,7 @@
         <v>146</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9385,14 +9388,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9414,10 +9417,10 @@
         <v>140</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N61" t="s" s="2">
         <v>143</v>
@@ -9472,7 +9475,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9507,10 +9510,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9536,16 +9539,16 @@
         <v>198</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9570,13 +9573,13 @@
         <v>82</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>82</v>
@@ -9594,7 +9597,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>92</v>
@@ -9612,16 +9615,16 @@
         <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>82</v>
@@ -9629,10 +9632,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9655,19 +9658,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9716,7 +9719,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9734,27 +9737,27 @@
         <v>82</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9780,16 +9783,16 @@
         <v>198</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9814,13 +9817,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -9838,7 +9841,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9847,7 +9850,7 @@
         <v>92</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>105</v>
@@ -9862,7 +9865,7 @@
         <v>106</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -9873,14 +9876,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9902,16 +9905,16 @@
         <v>198</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -9936,13 +9939,13 @@
         <v>82</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
@@ -9960,7 +9963,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9978,27 +9981,27 @@
         <v>82</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10024,16 +10027,16 @@
         <v>83</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10082,7 +10085,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10103,10 +10106,10 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cls-l3-blood.xlsx
+++ b/output/StructureDefinition-cls-l3-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T01:48:17+01:00</t>
+    <t>2023-03-05T02:26:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-blood.xlsx
+++ b/output/StructureDefinition-cls-l3-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T02:26:26+01:00</t>
+    <t>2023-03-05T17:53:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-blood.xlsx
+++ b/output/StructureDefinition-cls-l3-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T17:53:57+01:00</t>
+    <t>2023-03-05T18:57:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-blood.xlsx
+++ b/output/StructureDefinition-cls-l3-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T18:57:32+01:00</t>
+    <t>2023-03-06T10:30:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-blood.xlsx
+++ b/output/StructureDefinition-cls-l3-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:47+01:00</t>
+    <t>2023-03-06T11:09:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-blood.xlsx
+++ b/output/StructureDefinition-cls-l3-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:09:37+01:00</t>
+    <t>2023-03-06T11:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l3-blood.xlsx
+++ b/output/StructureDefinition-cls-l3-blood.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:31:12+01:00</t>
+    <t>2023-03-06T13:11:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
